--- a/results/SpeedGraphs.xlsx
+++ b/results/SpeedGraphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15560" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="8280" yWindow="20" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,6 +149,29 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Demarcation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Speed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -156,10 +179,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0550597078506548"/>
-          <c:y val="0.0159574468085106"/>
+          <c:x val="0.130982578519967"/>
+          <c:y val="0.0599455040871934"/>
           <c:w val="0.7838467246568"/>
-          <c:h val="0.898014324007371"/>
+          <c:h val="0.816270462786157"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -343,6 +366,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -352,7 +380,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0243883105215875"/>
+                  <c:y val="0.0600725181831834"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -523,11 +556,16 @@
           <c:trendline>
             <c:trendlineType val="poly"/>
             <c:order val="3"/>
-            <c:forward val="1.5"/>
+            <c:forward val="0.5"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0225538586200215"/>
+                  <c:y val="0.171662125340599"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -594,21 +632,40 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2122037864"/>
-        <c:axId val="2121885816"/>
+        <c:axId val="2085273000"/>
+        <c:axId val="2085275736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2122037864"/>
+        <c:axId val="2085273000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Input size (nu)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121885816"/>
+        <c:crossAx val="2085275736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -616,23 +673,48 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121885816"/>
+        <c:axId val="2085275736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> time (seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122037864"/>
+        <c:crossAx val="2085273000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:legendEntry>
         <c:idx val="5"/>
         <c:delete val="1"/>
@@ -641,13 +723,27 @@
         <c:idx val="6"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0872581866863957"/>
+          <c:y val="0.107901907356948"/>
+          <c:w val="0.653224118797231"/>
+          <c:h val="0.054721834838765"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -660,16 +756,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/results/SpeedGraphs.xlsx
+++ b/results/SpeedGraphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="20" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="1320" yWindow="0" windowWidth="13700" windowHeight="13780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,8 +113,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -123,11 +127,15 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -149,212 +157,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Demarcation</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Speed</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.130982578519967"/>
-          <c:y val="0.0599455040871934"/>
-          <c:w val="0.7838467246568"/>
-          <c:h val="0.816270462786157"/>
+          <c:x val="0.0951883950747767"/>
+          <c:y val="0.0326975476839237"/>
+          <c:w val="0.87333210026599"/>
+          <c:h val="0.843518419189427"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> aml</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$7:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>110.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$8:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2.01744795888</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.09098966896</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.72747204985</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.4884928962</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.97042349984</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.39673257795</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.78864229796</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> baps</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$7:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>110.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$8:$D$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>9.06192102562</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.2616960351</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.5123567277</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.642575505</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26.7767643234</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.7432445431</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>34.3265477507</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$E$6</c:f>
@@ -377,17 +198,8 @@
           <c:trendline>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0243883105215875"/>
-                  <c:y val="0.0600725181831834"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:numRef>
@@ -455,90 +267,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> random</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$7:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>110.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>170.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$8:$F$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.00151202908279</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.00251985551191</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.00307181559249</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.00362353447432</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.00432660580744</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.00504322047258</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.00575618699942</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
           <c:idx val="5"/>
-          <c:order val="4"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$G$6</c:f>
@@ -557,17 +287,8 @@
             <c:trendlineType val="poly"/>
             <c:order val="3"/>
             <c:forward val="0.5"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.0225538586200215"/>
-                  <c:y val="0.171662125340599"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:numRef>
@@ -632,11 +353,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2085273000"/>
-        <c:axId val="2085275736"/>
+        <c:axId val="2075828568"/>
+        <c:axId val="2075834024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2085273000"/>
+        <c:axId val="2075828568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -653,7 +374,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Input size (nu)</a:t>
+                  <a:t>input size (nu)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -665,7 +386,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085275736"/>
+        <c:crossAx val="2075834024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -673,7 +394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2085275736"/>
+        <c:axId val="2075834024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -691,7 +412,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Run</a:t>
+                  <a:t>run</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
@@ -708,7 +429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085273000"/>
+        <c:crossAx val="2075828568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -716,21 +437,21 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:legendEntry>
-        <c:idx val="5"/>
+        <c:idx val="2"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:legendEntry>
-        <c:idx val="6"/>
+        <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0872581866863957"/>
-          <c:y val="0.107901907356948"/>
-          <c:w val="0.653224118797231"/>
-          <c:h val="0.054721834838765"/>
+          <c:x val="0.307470224688733"/>
+          <c:y val="0.0447871592973955"/>
+          <c:w val="0.252776691504166"/>
+          <c:h val="0.185327680193822"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -756,15 +477,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1116,7 +837,7 @@
   <dimension ref="B4:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/results/SpeedGraphs.xlsx
+++ b/results/SpeedGraphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="0" windowWidth="13700" windowHeight="13780" tabRatio="500"/>
+    <workbookView xWindow="14980" yWindow="0" windowWidth="21280" windowHeight="14120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,8 +164,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0951883950747767"/>
-          <c:y val="0.0326975476839237"/>
+          <c:x val="0.102053370330997"/>
+          <c:y val="0.0665436705027256"/>
           <c:w val="0.87333210026599"/>
           <c:h val="0.843518419189427"/>
         </c:manualLayout>
@@ -236,29 +236,32 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$8:$E$14</c:f>
+              <c:f>Sheet1!$E$7:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>558.714070978</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1127.40422291</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1447.21550901</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2134.42069532</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2511.5422421</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>3207.99438441</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>5237.29351653</c:v>
                 </c:pt>
               </c:numCache>
@@ -353,11 +356,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2075828568"/>
-        <c:axId val="2075834024"/>
+        <c:axId val="2048880760"/>
+        <c:axId val="2050632696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2075828568"/>
+        <c:axId val="2048880760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -386,7 +389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075834024"/>
+        <c:crossAx val="2050632696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -394,7 +397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075834024"/>
+        <c:axId val="2050632696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -429,9 +432,9 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075828568"/>
+        <c:crossAx val="2048880760"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>

--- a/results/SpeedGraphs.xlsx
+++ b/results/SpeedGraphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14980" yWindow="0" windowWidth="21280" windowHeight="14120" tabRatio="500"/>
+    <workbookView xWindow="15780" yWindow="3020" windowWidth="21280" windowHeight="14120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,9 +164,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.102053370330997"/>
+          <c:x val="0.109731387515291"/>
           <c:y val="0.0665436705027256"/>
-          <c:w val="0.87333210026599"/>
+          <c:w val="0.855821775013353"/>
           <c:h val="0.843518419189427"/>
         </c:manualLayout>
       </c:layout>
@@ -356,11 +356,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2048880760"/>
-        <c:axId val="2050632696"/>
+        <c:axId val="2053712536"/>
+        <c:axId val="2053717624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2048880760"/>
+        <c:axId val="2053712536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -389,7 +389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2050632696"/>
+        <c:crossAx val="2053717624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -397,7 +397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2050632696"/>
+        <c:axId val="2053717624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -425,14 +425,21 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0"/>
+              <c:y val="0.359942822531799"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048880760"/>
+        <c:crossAx val="2053712536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -451,8 +458,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.307470224688733"/>
-          <c:y val="0.0447871592973955"/>
+          <c:x val="0.411778527684039"/>
+          <c:y val="0.0540179285281647"/>
           <c:w val="0.252776691504166"/>
           <c:h val="0.185327680193822"/>
         </c:manualLayout>
@@ -480,16 +487,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
